--- a/html/resources/aoiConditions/train2P1Block14.xlsx
+++ b/html/resources/aoiConditions/train2P1Block14.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/27_pakapa1.wav</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
-  </si>
-  <si>
-    <t>pngimages/27_kiwi.png</t>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/03_kikita3.wav</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/03_box.png</t>
   </si>
 </sst>
 </file>
